--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Pgf-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Pgf</t>
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.082277333333333</v>
+        <v>3.529548333333333</v>
       </c>
       <c r="H2">
-        <v>3.246832</v>
+        <v>10.588645</v>
       </c>
       <c r="I2">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="J2">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>95.17685328680179</v>
+        <v>472.1759263487955</v>
       </c>
       <c r="R2">
-        <v>856.5916795812161</v>
+        <v>4249.58333713916</v>
       </c>
       <c r="S2">
-        <v>0.1559432523204815</v>
+        <v>0.3245054168653256</v>
       </c>
       <c r="T2">
-        <v>0.1559432523204815</v>
+        <v>0.3245054168653255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.082277333333333</v>
+        <v>3.529548333333333</v>
       </c>
       <c r="H3">
-        <v>3.246832</v>
+        <v>10.588645</v>
       </c>
       <c r="I3">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="J3">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>56.756756528624</v>
+        <v>185.096471339765</v>
       </c>
       <c r="R3">
-        <v>510.8108087576159</v>
+        <v>1665.868242057885</v>
       </c>
       <c r="S3">
-        <v>0.09299354726053645</v>
+        <v>0.1272085344479029</v>
       </c>
       <c r="T3">
-        <v>0.09299354726053645</v>
+        <v>0.1272085344479029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.082277333333333</v>
+        <v>3.529548333333333</v>
       </c>
       <c r="H4">
-        <v>3.246832</v>
+        <v>10.588645</v>
       </c>
       <c r="I4">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="J4">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>20.51257726683556</v>
+        <v>74.818274939565</v>
       </c>
       <c r="R4">
-        <v>184.61319540152</v>
+        <v>673.364474456085</v>
       </c>
       <c r="S4">
-        <v>0.03360899107292811</v>
+        <v>0.05141925740719207</v>
       </c>
       <c r="T4">
-        <v>0.03360899107292811</v>
+        <v>0.05141925740719205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.082277333333333</v>
+        <v>3.529548333333333</v>
       </c>
       <c r="H5">
-        <v>3.246832</v>
+        <v>10.588645</v>
       </c>
       <c r="I5">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="J5">
-        <v>0.3794857194016649</v>
+        <v>0.6379922832219154</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>59.16535174662933</v>
+        <v>196.2284914821977</v>
       </c>
       <c r="R5">
-        <v>532.4881657196639</v>
+        <v>1766.05642333978</v>
       </c>
       <c r="S5">
-        <v>0.09693992874771887</v>
+        <v>0.1348590745014949</v>
       </c>
       <c r="T5">
-        <v>0.09693992874771887</v>
+        <v>0.1348590745014948</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>1.915459</v>
       </c>
       <c r="I6">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="J6">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>56.14930499018245</v>
+        <v>85.41542640329691</v>
       </c>
       <c r="R6">
-        <v>505.343744911642</v>
+        <v>768.738837629672</v>
       </c>
       <c r="S6">
-        <v>0.09199826358325197</v>
+        <v>0.05870220611640486</v>
       </c>
       <c r="T6">
-        <v>0.09199826358325196</v>
+        <v>0.05870220611640484</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>1.915459</v>
       </c>
       <c r="I7">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="J7">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
         <v>33.483481776563</v>
@@ -883,10 +883,10 @@
         <v>301.351335989067</v>
       </c>
       <c r="S7">
-        <v>0.05486127001400747</v>
+        <v>0.02301170094804818</v>
       </c>
       <c r="T7">
-        <v>0.05486127001400747</v>
+        <v>0.02301170094804818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>1.915459</v>
       </c>
       <c r="I8">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="J8">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>12.10133469762389</v>
+        <v>13.534436001723</v>
       </c>
       <c r="R8">
-        <v>108.912012278615</v>
+        <v>121.809924015507</v>
       </c>
       <c r="S8">
-        <v>0.01982752554846072</v>
+        <v>0.009301613131229042</v>
       </c>
       <c r="T8">
-        <v>0.01982752554846071</v>
+        <v>0.009301613131229038</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,10 +977,10 @@
         <v>1.915459</v>
       </c>
       <c r="I9">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="J9">
-        <v>0.2238764853245852</v>
+        <v>0.1154111844176443</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>34.90442544956034</v>
+        <v>35.49723596040845</v>
       </c>
       <c r="R9">
-        <v>314.139829046043</v>
+        <v>319.4751236436759</v>
       </c>
       <c r="S9">
-        <v>0.05718942617886508</v>
+        <v>0.0243956642219622</v>
       </c>
       <c r="T9">
-        <v>0.05718942617886507</v>
+        <v>0.02439566422196219</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.131194333333333</v>
+        <v>1.109135333333333</v>
       </c>
       <c r="H10">
-        <v>3.393583</v>
+        <v>3.327406</v>
       </c>
       <c r="I10">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="J10">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>99.47867684795047</v>
+        <v>148.3779095803609</v>
       </c>
       <c r="R10">
-        <v>895.3080916315542</v>
+        <v>1335.401186223248</v>
       </c>
       <c r="S10">
-        <v>0.1629916084477104</v>
+        <v>0.101973507574405</v>
       </c>
       <c r="T10">
-        <v>0.1629916084477104</v>
+        <v>0.101973507574405</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.131194333333333</v>
+        <v>1.109135333333333</v>
       </c>
       <c r="H11">
-        <v>3.393583</v>
+        <v>3.327406</v>
       </c>
       <c r="I11">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="J11">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>59.322060424031</v>
+        <v>58.165242985742</v>
       </c>
       <c r="R11">
-        <v>533.898543816279</v>
+        <v>523.487186871678</v>
       </c>
       <c r="S11">
-        <v>0.09719668929376483</v>
+        <v>0.03997437262021334</v>
       </c>
       <c r="T11">
-        <v>0.09719668929376485</v>
+        <v>0.03997437262021333</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.131194333333333</v>
+        <v>1.109135333333333</v>
       </c>
       <c r="H12">
-        <v>3.393583</v>
+        <v>3.327406</v>
       </c>
       <c r="I12">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="J12">
-        <v>0.39663779527375</v>
+        <v>0.2004845144158011</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>21.43970907608389</v>
+        <v>23.511108073182</v>
       </c>
       <c r="R12">
-        <v>192.957381684755</v>
+        <v>211.599972658638</v>
       </c>
       <c r="S12">
-        <v>0.03512805736553064</v>
+        <v>0.01615813407780083</v>
       </c>
       <c r="T12">
-        <v>0.03512805736553064</v>
+        <v>0.01615813407780082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.109135333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.327406</v>
+      </c>
+      <c r="I13">
+        <v>0.2004845144158011</v>
+      </c>
+      <c r="J13">
+        <v>0.2004845144158011</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>55.59592133333333</v>
+      </c>
+      <c r="N13">
+        <v>166.787764</v>
+      </c>
+      <c r="O13">
+        <v>0.2113804164220374</v>
+      </c>
+      <c r="P13">
+        <v>0.2113804164220373</v>
+      </c>
+      <c r="Q13">
+        <v>61.66340074002044</v>
+      </c>
+      <c r="R13">
+        <v>554.9706066601839</v>
+      </c>
+      <c r="S13">
+        <v>0.042378500143382</v>
+      </c>
+      <c r="T13">
+        <v>0.04237850014338198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.131194333333333</v>
-      </c>
-      <c r="H13">
-        <v>3.393583</v>
-      </c>
-      <c r="I13">
-        <v>0.39663779527375</v>
-      </c>
-      <c r="J13">
-        <v>0.39663779527375</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>54.667459</v>
-      </c>
-      <c r="N13">
-        <v>164.002377</v>
-      </c>
-      <c r="O13">
-        <v>0.255450795093328</v>
-      </c>
-      <c r="P13">
-        <v>0.255450795093328</v>
-      </c>
-      <c r="Q13">
-        <v>61.83951983853234</v>
-      </c>
-      <c r="R13">
-        <v>556.5556785467911</v>
-      </c>
-      <c r="S13">
-        <v>0.1013214401667441</v>
-      </c>
-      <c r="T13">
-        <v>0.1013214401667441</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.2551043333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.765313</v>
+      </c>
+      <c r="I14">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="J14">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>133.7780026666667</v>
+      </c>
+      <c r="N14">
+        <v>401.334008</v>
+      </c>
+      <c r="O14">
+        <v>0.50863533211804</v>
+      </c>
+      <c r="P14">
+        <v>0.5086353321180399</v>
+      </c>
+      <c r="Q14">
+        <v>34.12734818494489</v>
+      </c>
+      <c r="R14">
+        <v>307.146133664504</v>
+      </c>
+      <c r="S14">
+        <v>0.02345420156190456</v>
+      </c>
+      <c r="T14">
+        <v>0.02345420156190456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.2551043333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.765313</v>
+      </c>
+      <c r="I15">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="J15">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>52.441971</v>
+      </c>
+      <c r="N15">
+        <v>157.325913</v>
+      </c>
+      <c r="O15">
+        <v>0.1993888292903622</v>
+      </c>
+      <c r="P15">
+        <v>0.1993888292903622</v>
+      </c>
+      <c r="Q15">
+        <v>13.378174050641</v>
+      </c>
+      <c r="R15">
+        <v>120.403566455769</v>
+      </c>
+      <c r="S15">
+        <v>0.009194221274197776</v>
+      </c>
+      <c r="T15">
+        <v>0.009194221274197776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.2551043333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.765313</v>
+      </c>
+      <c r="I16">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="J16">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>21.197691</v>
+      </c>
+      <c r="N16">
+        <v>63.593073</v>
+      </c>
+      <c r="O16">
+        <v>0.08059542216956049</v>
+      </c>
+      <c r="P16">
+        <v>0.08059542216956046</v>
+      </c>
+      <c r="Q16">
+        <v>5.407622830761</v>
+      </c>
+      <c r="R16">
+        <v>48.668605476849</v>
+      </c>
+      <c r="S16">
+        <v>0.003716417553338542</v>
+      </c>
+      <c r="T16">
+        <v>0.003716417553338541</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.2551043333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.765313</v>
+      </c>
+      <c r="I17">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="J17">
+        <v>0.04611201794463916</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>55.59592133333333</v>
+      </c>
+      <c r="N17">
+        <v>166.787764</v>
+      </c>
+      <c r="O17">
+        <v>0.2113804164220374</v>
+      </c>
+      <c r="P17">
+        <v>0.2113804164220373</v>
+      </c>
+      <c r="Q17">
+        <v>14.18276044779244</v>
+      </c>
+      <c r="R17">
+        <v>127.644844030132</v>
+      </c>
+      <c r="S17">
+        <v>0.009747177555198284</v>
+      </c>
+      <c r="T17">
+        <v>0.009747177555198284</v>
       </c>
     </row>
   </sheetData>
